--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.1058525301293</v>
+        <v>143.3264615568931</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.9658820110164</v>
+        <v>196.1055878192746</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.4126469559819</v>
+        <v>177.3895457537798</v>
       </c>
       <c r="AD2" t="n">
-        <v>119105.8525301293</v>
+        <v>143326.4615568931</v>
       </c>
       <c r="AE2" t="n">
-        <v>162965.8820110164</v>
+        <v>196105.5878192746</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.367196221801468e-06</v>
+        <v>8.080456405319127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.479817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>147412.6469559819</v>
+        <v>177389.5457537798</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.72712246542775</v>
+        <v>103.0329828382122</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.7179221526728</v>
+        <v>140.9742726135803</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.43747484550238</v>
+        <v>127.5198858940125</v>
       </c>
       <c r="AD3" t="n">
-        <v>78727.12246542776</v>
+        <v>103032.9828382122</v>
       </c>
       <c r="AE3" t="n">
-        <v>107717.9221526728</v>
+        <v>140974.2726135803</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.573765474058877e-06</v>
+        <v>1.031292541923552e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.726236979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>97437.47484550238</v>
+        <v>127519.8858940125</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.14390622134644</v>
+        <v>102.585989632209</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.2881840747221</v>
+        <v>140.3626767891786</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.95331177007904</v>
+        <v>126.9666599167113</v>
       </c>
       <c r="AD2" t="n">
-        <v>79143.90622134643</v>
+        <v>102585.989632209</v>
       </c>
       <c r="AE2" t="n">
-        <v>108288.1840747221</v>
+        <v>140362.6767891786</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.419818695241026e-06</v>
+        <v>1.033101088674875e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.900390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>97953.31177007905</v>
+        <v>126966.6599167113</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.13439599794955</v>
+        <v>99.57647940881206</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.1704394168519</v>
+        <v>136.2449321313084</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.22855888306378</v>
+        <v>123.241907029696</v>
       </c>
       <c r="AD3" t="n">
-        <v>76134.39599794956</v>
+        <v>99576.47940881207</v>
       </c>
       <c r="AE3" t="n">
-        <v>104170.4394168519</v>
+        <v>136244.9321313084</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.605263537791242e-06</v>
+        <v>1.068449737679683e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.804361979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>94228.55888306379</v>
+        <v>123241.907029696</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.71440994672629</v>
+        <v>107.4707027285156</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.6464812588343</v>
+        <v>147.0461567458746</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.3230276089043</v>
+        <v>133.0122779266654</v>
       </c>
       <c r="AD2" t="n">
-        <v>86714.40994672629</v>
+        <v>107470.7027285156</v>
       </c>
       <c r="AE2" t="n">
-        <v>118646.4812588343</v>
+        <v>147046.1567458746</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.106091439191729e-06</v>
+        <v>1.08746384863661e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.435872395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>107323.0276089043</v>
+        <v>133012.2779266654</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.20377356933167</v>
+        <v>96.17565912408291</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.5795619227106</v>
+        <v>131.5917797841422</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.4533721532801</v>
+        <v>119.0328450118015</v>
       </c>
       <c r="AD2" t="n">
-        <v>85203.77356933168</v>
+        <v>96175.65912408291</v>
       </c>
       <c r="AE2" t="n">
-        <v>116579.5619227106</v>
+        <v>131591.7797841422</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.443565085451601e-06</v>
+        <v>1.105231913627233e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.082682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>105453.3721532801</v>
+        <v>119032.8450118015</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.372736073238</v>
+        <v>111.4657126672247</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.0202085759689</v>
+        <v>152.5123055914133</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.0884553364761</v>
+        <v>137.9567451981757</v>
       </c>
       <c r="AD2" t="n">
-        <v>91372.736073238</v>
+        <v>111465.7126672247</v>
       </c>
       <c r="AE2" t="n">
-        <v>125020.2085759689</v>
+        <v>152512.3055914133</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.6378807729442e-06</v>
+        <v>1.032765459173201e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.929036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>113088.4553364761</v>
+        <v>137956.7451981757</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.20376469432674</v>
+        <v>108.0810845304694</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.63023506528</v>
+        <v>147.8813080554521</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0676301748799</v>
+        <v>133.7677235673993</v>
       </c>
       <c r="AD2" t="n">
-        <v>96203.76469432673</v>
+        <v>108081.0845304694</v>
       </c>
       <c r="AE2" t="n">
-        <v>131630.23506528</v>
+        <v>147881.3080554521</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180462135254895e-06</v>
+        <v>9.795029592016195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>119067.6301748799</v>
+        <v>133767.7235673993</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.43842323921879</v>
+        <v>100.1075430398305</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.5864229010915</v>
+        <v>136.9715568201414</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.60484148740422</v>
+        <v>123.8991836780512</v>
       </c>
       <c r="AD3" t="n">
-        <v>76438.4232392188</v>
+        <v>100107.5430398305</v>
       </c>
       <c r="AE3" t="n">
-        <v>104586.4229010915</v>
+        <v>136971.5568201414</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.620861719237523e-06</v>
+        <v>1.062772112508716e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.771809895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>94604.84148740422</v>
+        <v>123899.1836780512</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.509161661849</v>
+        <v>126.0230882854257</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.730533838264</v>
+        <v>172.4303491383121</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.8222162228685</v>
+        <v>155.9738386241146</v>
       </c>
       <c r="AD2" t="n">
-        <v>106509.161661849</v>
+        <v>126023.0882854257</v>
       </c>
       <c r="AE2" t="n">
-        <v>145730.533838264</v>
+        <v>172430.3491383121</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.266925188629888e-06</v>
+        <v>9.782210804443011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.3701171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>131822.2162228685</v>
+        <v>155973.8386241146</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.54405987946566</v>
+        <v>97.24930035820772</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.9944713788654</v>
+        <v>133.0607830863793</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.26026218063177</v>
+        <v>120.3616487006327</v>
       </c>
       <c r="AD2" t="n">
-        <v>74544.05987946567</v>
+        <v>97249.30035820772</v>
       </c>
       <c r="AE2" t="n">
-        <v>101994.4713788654</v>
+        <v>133060.7830863793</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.573842831423868e-06</v>
+        <v>1.092465491944972e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.9052734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>92260.26218063178</v>
+        <v>120361.6487006327</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.82094811273596</v>
+        <v>97.52618859147802</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.3733220750724</v>
+        <v>133.4396337825863</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.60295589811314</v>
+        <v>120.7043424181141</v>
       </c>
       <c r="AD3" t="n">
-        <v>74820.94811273596</v>
+        <v>97526.18859147801</v>
       </c>
       <c r="AE3" t="n">
-        <v>102373.3220750724</v>
+        <v>133439.6337825863</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.572449644377754e-06</v>
+        <v>1.092192429209308e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.906901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>92602.95589811314</v>
+        <v>120704.3424181141</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.50241324237268</v>
+        <v>99.70882691980989</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.6739768464463</v>
+        <v>136.4260158346156</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.68403940709709</v>
+        <v>123.4057083585123</v>
       </c>
       <c r="AD2" t="n">
-        <v>76502.41324237268</v>
+        <v>99708.8269198099</v>
       </c>
       <c r="AE2" t="n">
-        <v>104673.9768464463</v>
+        <v>136426.0158346156</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.53633301790392e-06</v>
+        <v>1.064472455228273e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.8662109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>94684.03940709709</v>
+        <v>123405.7083585123</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.39842866069573</v>
+        <v>98.60484233813295</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.1634564374343</v>
+        <v>134.9154954256036</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.31768094589201</v>
+        <v>122.0393498973072</v>
       </c>
       <c r="AD3" t="n">
-        <v>75398.42866069573</v>
+        <v>98604.84233813295</v>
       </c>
       <c r="AE3" t="n">
-        <v>103163.4564374343</v>
+        <v>134915.4954256036</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.615018154577253e-06</v>
+        <v>1.079601270701217e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.825520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>93317.680945892</v>
+        <v>122039.3498973072</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.0453181155832</v>
+        <v>122.1382630635037</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.5688591024734</v>
+        <v>167.1149598832881</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1987785144953</v>
+        <v>151.1657426593927</v>
       </c>
       <c r="AD2" t="n">
-        <v>110045.3181155832</v>
+        <v>122138.2630635037</v>
       </c>
       <c r="AE2" t="n">
-        <v>150568.8591024734</v>
+        <v>167114.9598832881</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.649717482674659e-06</v>
+        <v>8.662071005778124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136198.7785144953</v>
+        <v>151165.7426593927</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.94978464812208</v>
+        <v>101.0501546722892</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.2860901404258</v>
+        <v>138.261279640761</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.23773346740579</v>
+        <v>125.0658171628086</v>
       </c>
       <c r="AD3" t="n">
-        <v>76949.78464812208</v>
+        <v>101050.1546722892</v>
       </c>
       <c r="AE3" t="n">
-        <v>105286.0901404258</v>
+        <v>138261.279640761</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.644485603790944e-06</v>
+        <v>1.051524856581283e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.713216145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>95237.73346740579</v>
+        <v>125065.8171628086</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.24971655156435</v>
+        <v>96.37028954922428</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6424231378626</v>
+        <v>131.8580817183088</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5102339822843</v>
+        <v>119.2737314631285</v>
       </c>
       <c r="AD2" t="n">
-        <v>85249.71655156434</v>
+        <v>96370.28954922428</v>
       </c>
       <c r="AE2" t="n">
-        <v>116642.4231378626</v>
+        <v>131858.0817183088</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.508000103508354e-06</v>
+        <v>1.104077163862592e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>105510.2339822843</v>
+        <v>119273.7314631285</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.74235150114593</v>
+        <v>96.38769001656887</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.3164680093999</v>
+        <v>131.8818898053842</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.1199489573102</v>
+        <v>119.2952673397882</v>
       </c>
       <c r="AD2" t="n">
-        <v>85742.35150114594</v>
+        <v>96387.69001656887</v>
       </c>
       <c r="AE2" t="n">
-        <v>117316.4680093999</v>
+        <v>131881.8898053842</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.253462863678321e-06</v>
+        <v>1.099057285143924e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2861328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>106119.9489573102</v>
+        <v>119295.2673397882</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.72897115147268</v>
+        <v>109.2597415572604</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.4028927753347</v>
+        <v>149.4939985981848</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.8163710789187</v>
+        <v>135.2265011881595</v>
       </c>
       <c r="AD2" t="n">
-        <v>88728.97115147268</v>
+        <v>109259.7415572604</v>
       </c>
       <c r="AE2" t="n">
-        <v>121402.8927753347</v>
+        <v>149493.9985981848</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.892050203463018e-06</v>
+        <v>1.063461156122733e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.650716145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>109816.3710789187</v>
+        <v>135226.5011881595</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.6764037514988</v>
+        <v>144.7012479421307</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.9560000643514</v>
+        <v>197.9866312028507</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.5447607600194</v>
+        <v>179.0910649968888</v>
       </c>
       <c r="AD2" t="n">
-        <v>125676.4037514988</v>
+        <v>144701.2479421308</v>
       </c>
       <c r="AE2" t="n">
-        <v>171956.0000643514</v>
+        <v>197986.6312028507</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.730219265813381e-06</v>
+        <v>8.872427103590341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.138346354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155544.7607600194</v>
+        <v>179091.0649968888</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.3339018939719</v>
+        <v>98.29507364170711</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.0751680684828</v>
+        <v>134.4916562291236</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.23781869495967</v>
+        <v>121.655961318877</v>
       </c>
       <c r="AD2" t="n">
-        <v>75333.9018939719</v>
+        <v>98295.0736417071</v>
       </c>
       <c r="AE2" t="n">
-        <v>103075.1680684828</v>
+        <v>134491.6562291236</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.568065631743526e-06</v>
+        <v>1.080526675322563e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.879231770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>93237.81869495967</v>
+        <v>121655.961318877</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.2075188040708</v>
+        <v>98.16869055180601</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.9022451492517</v>
+        <v>134.3187333098926</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.08139929644118</v>
+        <v>121.4995419203585</v>
       </c>
       <c r="AD3" t="n">
-        <v>75207.5188040708</v>
+        <v>98168.69055180601</v>
       </c>
       <c r="AE3" t="n">
-        <v>102902.2451492517</v>
+        <v>134318.7333098926</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.590813733348223e-06</v>
+        <v>1.084941122317708e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.8662109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>93081.39929644117</v>
+        <v>121499.5419203585</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.9534829873922</v>
+        <v>113.9404032000676</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.4972532935169</v>
+        <v>155.8982863540883</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.1838312248458</v>
+        <v>141.0195727091159</v>
       </c>
       <c r="AD2" t="n">
-        <v>101953.4829873922</v>
+        <v>113940.4032000676</v>
       </c>
       <c r="AE2" t="n">
-        <v>139497.2532935169</v>
+        <v>155898.2863540883</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.945748798247652e-06</v>
+        <v>9.28016461282617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.123372395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>126183.8312248458</v>
+        <v>141019.5727091159</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.13687911651937</v>
+        <v>101.0251996701964</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.5420810461123</v>
+        <v>138.2271351059605</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.4692929603391</v>
+        <v>125.0349313344874</v>
       </c>
       <c r="AD3" t="n">
-        <v>77136.87911651937</v>
+        <v>101025.1996701964</v>
       </c>
       <c r="AE3" t="n">
-        <v>105542.0810461123</v>
+        <v>138227.1351059605</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.607453130151809e-06</v>
+        <v>1.052178147926841e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.75390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>95469.29296033911</v>
+        <v>125034.9313344874</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.3311272358</v>
+        <v>191.8865582341615</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.5309010096187</v>
+        <v>262.547654413348</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.2472501063145</v>
+        <v>237.490474764162</v>
       </c>
       <c r="AD2" t="n">
-        <v>155331.1272358</v>
+        <v>191886.5582341615</v>
       </c>
       <c r="AE2" t="n">
-        <v>212530.9010096187</v>
+        <v>262547.6544133479</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.929849175660637e-06</v>
+        <v>7.327330443445463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.774088541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>192247.2501063145</v>
+        <v>237490.474764162</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.31511713593814</v>
+        <v>96.12915361883196</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7319071026729</v>
+        <v>131.5281489001798</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5911777230847</v>
+        <v>118.975286970098</v>
       </c>
       <c r="AD2" t="n">
-        <v>85315.11713593814</v>
+        <v>96129.15361883196</v>
       </c>
       <c r="AE2" t="n">
-        <v>116731.9071026729</v>
+        <v>131528.1489001797</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.362815870577438e-06</v>
+        <v>1.104355801121905e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.172200520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105591.1777230847</v>
+        <v>118975.2869700979</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.28927979797407</v>
+        <v>96.72655360094926</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6458700312649</v>
+        <v>132.3455379111394</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.94493085638108</v>
+        <v>119.7146655210645</v>
       </c>
       <c r="AD2" t="n">
-        <v>74289.27979797407</v>
+        <v>96726.55360094926</v>
       </c>
       <c r="AE2" t="n">
-        <v>101645.8700312649</v>
+        <v>132345.5379111394</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.54208589555925e-06</v>
+        <v>1.097989252241769e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.955729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91944.93085638108</v>
+        <v>119714.6655210645</v>
       </c>
     </row>
   </sheetData>
